--- a/Textbook Companion/Chapter52/Practice Files/Salestracker.xlsx
+++ b/Textbook Companion/Chapter52/Practice Files/Salestracker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft Press\Ch52charting\Practice Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\Textbook Companion\Chapter52\Practice Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="14352" windowHeight="6852"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14355" windowHeight="6855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="171027" iterate="1"/>
 </workbook>
 </file>
 
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,6 +331,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -366,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,24 +575,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="D1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="9" width="8.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="9" width="8.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
@@ -569,7 +603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
@@ -580,7 +614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
@@ -591,7 +625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
@@ -620,7 +654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
@@ -664,7 +698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +754,7 @@
         <v>g</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -776,7 +810,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
@@ -832,7 +866,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
@@ -888,7 +922,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>4</v>
       </c>
@@ -944,7 +978,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +1034,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1090,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1146,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1202,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1224,7 +1258,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1314,7 @@
         <v>g</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,7 +1370,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1426,7 @@
         <v>h</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,7 +1482,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +1538,7 @@
         <v>i</v>
       </c>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1512,7 +1546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +1554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,7 +1562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1536,7 +1570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1544,7 +1578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1552,7 +1586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +1602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,7 +1610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="J32" s="1" t="s">
         <v>38</v>
       </c>
@@ -1592,7 +1626,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J33" s="1" t="s">
         <v>39</v>
       </c>
@@ -1600,7 +1634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +1642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1616,7 +1650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1632,7 +1666,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1648,7 +1682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J40" s="1" t="s">
         <v>44</v>
       </c>
@@ -1656,7 +1690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J41" s="1" t="s">
         <v>45</v>
       </c>
@@ -1664,7 +1698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J43" s="1" t="s">
         <v>46</v>
       </c>
@@ -1680,7 +1714,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J44" s="1" t="s">
         <v>47</v>
       </c>
@@ -1688,7 +1722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J45" s="1" t="s">
         <v>48</v>
       </c>
@@ -1696,7 +1730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J46" s="1" t="s">
         <v>49</v>
       </c>
@@ -1704,7 +1738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1712,7 +1746,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1728,24 +1762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
